--- a/biology/Microbiologie/Trachelostylidae/Trachelostylidae.xlsx
+++ b/biology/Microbiologie/Trachelostylidae/Trachelostylidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trachelostylidae sont une famille de Ciliés de la classe des Hypotrichea et de l’ordre des Urostylida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Trachelostyla, dérivé du grec τραχελ / trachel, « cou », et de στυλοσ / stylos, colonne, littéralement « cou en forme de colonne », en référence à la forme de la partie antérieur de ce cilié[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Trachelostyla, dérivé du grec τραχελ / trachel, « cou », et de στυλοσ / stylos, colonne, littéralement « cou en forme de colonne », en référence à la forme de la partie antérieur de ce cilié.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Trachelostyla présente la particularité d'avoir une partie rétrécie en forme de cou. En dehors des deux rangs marginaux de cils, il n'y a pas de rangs antérieurs fermés et de même (sauf peut-être 2 très petits cirres devant le premier rang) pas de cils antérieurs isolés. Les cirres frontaux sont assez nombreux ; une série de cils transversaux existent[1].
-Dans la baie de Kiel, Alfred Kahl déclare avoir parfois « récolté des formes géantes dans lesquelles le corps, fortement granulé, était extraordinairement agrandi par rapport à la partie relativement faible du cou »[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Trachelostyla présente la particularité d'avoir une partie rétrécie en forme de cou. En dehors des deux rangs marginaux de cils, il n'y a pas de rangs antérieurs fermés et de même (sauf peut-être 2 très petits cirres devant le premier rang) pas de cils antérieurs isolés. Les cirres frontaux sont assez nombreux ; une série de cils transversaux existent.
+Dans la baie de Kiel, Alfred Kahl déclare avoir parfois « récolté des formes géantes dans lesquelles le corps, fortement granulé, était extraordinairement agrandi par rapport à la partie relativement faible du cou ».
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Kahl a récolté l'espèce type Trachelostyla pediculiformis notamment en Mer Baltique, dans des marais salants, en mer du Nord, en Atlantique et en Méditerranée[1].
-La famille des Trachelostylidae est largement répartie à travers le globe[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Kahl a récolté l'espèce type Trachelostyla pediculiformis notamment en Mer Baltique, dans des marais salants, en mer du Nord, en Atlantique et en Méditerranée.
+La famille des Trachelostylidae est largement répartie à travers le globe.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (30 mars 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (30 mars 2023) :
 Cotterillia
 Spirotrachelostyla Gong, Song, Li, Shao &amp; Chen, 2006
 Trachelostyla Borror, 1972 genre type
@@ -642,9 +662,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Trachelostylidae Small &amp; Lynn, 1985[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Trachelostylidae Small &amp; Lynn, 1985.
 </t>
         </is>
       </c>
